--- a/2022/SAMSUNG/JUNE/09.06.2022/SAMSUNG Bank Statement June-2022.xlsx
+++ b/2022/SAMSUNG/JUNE/09.06.2022/SAMSUNG Bank Statement June-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3188,6 +3188,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="36" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3200,6 +3203,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3227,12 +3254,6 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="42" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3245,24 +3266,6 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3370,9 +3373,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3836,33 +3836,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="380"/>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
+      <c r="A1" s="381"/>
+      <c r="B1" s="381"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="381"/>
+      <c r="F1" s="381"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="381"/>
-      <c r="B2" s="378" t="s">
+      <c r="A2" s="382"/>
+      <c r="B2" s="379" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="378"/>
-      <c r="D2" s="378"/>
-      <c r="E2" s="378"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="381"/>
-      <c r="B3" s="379" t="s">
+      <c r="A3" s="382"/>
+      <c r="B3" s="380" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="379"/>
-      <c r="D3" s="379"/>
-      <c r="E3" s="379"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="380"/>
+      <c r="E3" s="380"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="381"/>
+      <c r="A4" s="382"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3880,7 +3880,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="381"/>
+      <c r="A5" s="382"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3898,7 +3898,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="381"/>
+      <c r="A6" s="382"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3910,7 +3910,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="381"/>
+      <c r="A7" s="382"/>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
@@ -3929,7 +3929,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="381"/>
+      <c r="A8" s="382"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -3948,7 +3948,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="381"/>
+      <c r="A9" s="382"/>
       <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="381"/>
+      <c r="A10" s="382"/>
       <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="381"/>
+      <c r="A11" s="382"/>
       <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
@@ -4005,7 +4005,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="381"/>
+      <c r="A12" s="382"/>
       <c r="B12" s="26" t="s">
         <v>46</v>
       </c>
@@ -4024,7 +4024,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="381"/>
+      <c r="A13" s="382"/>
       <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
@@ -4043,7 +4043,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="381"/>
+      <c r="A14" s="382"/>
       <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="381"/>
+      <c r="A15" s="382"/>
       <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="381"/>
+      <c r="A16" s="382"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4094,7 +4094,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="381"/>
+      <c r="A17" s="382"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4107,7 +4107,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="381"/>
+      <c r="A18" s="382"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4120,7 +4120,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="381"/>
+      <c r="A19" s="382"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4133,7 +4133,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="381"/>
+      <c r="A20" s="382"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4146,7 +4146,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="381"/>
+      <c r="A21" s="382"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4159,7 +4159,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="381"/>
+      <c r="A22" s="382"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4172,7 +4172,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="381"/>
+      <c r="A23" s="382"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4185,7 +4185,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="381"/>
+      <c r="A24" s="382"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4198,7 +4198,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="381"/>
+      <c r="A25" s="382"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4211,7 +4211,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="381"/>
+      <c r="A26" s="382"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4224,7 +4224,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="381"/>
+      <c r="A27" s="382"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4237,7 +4237,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="381"/>
+      <c r="A28" s="382"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4250,7 +4250,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="381"/>
+      <c r="A29" s="382"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4263,7 +4263,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="381"/>
+      <c r="A30" s="382"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4276,7 +4276,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="381"/>
+      <c r="A31" s="382"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4289,7 +4289,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="381"/>
+      <c r="A32" s="382"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4302,7 +4302,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="381"/>
+      <c r="A33" s="382"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4315,7 +4315,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="381"/>
+      <c r="A34" s="382"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4328,7 +4328,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="381"/>
+      <c r="A35" s="382"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4341,7 +4341,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="381"/>
+      <c r="A36" s="382"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4354,7 +4354,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="381"/>
+      <c r="A37" s="382"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4367,7 +4367,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="381"/>
+      <c r="A38" s="382"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4380,7 +4380,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="381"/>
+      <c r="A39" s="382"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4393,7 +4393,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="381"/>
+      <c r="A40" s="382"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4406,7 +4406,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="381"/>
+      <c r="A41" s="382"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4419,7 +4419,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="381"/>
+      <c r="A42" s="382"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4432,7 +4432,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="381"/>
+      <c r="A43" s="382"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4445,7 +4445,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="381"/>
+      <c r="A44" s="382"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4458,7 +4458,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="381"/>
+      <c r="A45" s="382"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4471,7 +4471,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="381"/>
+      <c r="A46" s="382"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4484,7 +4484,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="381"/>
+      <c r="A47" s="382"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4497,7 +4497,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="381"/>
+      <c r="A48" s="382"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4510,7 +4510,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="381"/>
+      <c r="A49" s="382"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4523,7 +4523,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="381"/>
+      <c r="A50" s="382"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4536,7 +4536,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="381"/>
+      <c r="A51" s="382"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4549,7 +4549,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="381"/>
+      <c r="A52" s="382"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4562,7 +4562,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="381"/>
+      <c r="A53" s="382"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4575,7 +4575,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="381"/>
+      <c r="A54" s="382"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4588,7 +4588,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="381"/>
+      <c r="A55" s="382"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4600,7 +4600,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="381"/>
+      <c r="A56" s="382"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4612,7 +4612,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="381"/>
+      <c r="A57" s="382"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4624,7 +4624,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="381"/>
+      <c r="A58" s="382"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4636,7 +4636,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="381"/>
+      <c r="A59" s="382"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4648,7 +4648,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="381"/>
+      <c r="A60" s="382"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4660,7 +4660,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="381"/>
+      <c r="A61" s="382"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4672,7 +4672,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="381"/>
+      <c r="A62" s="382"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4684,7 +4684,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="381"/>
+      <c r="A63" s="382"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4696,7 +4696,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="381"/>
+      <c r="A64" s="382"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4708,7 +4708,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="381"/>
+      <c r="A65" s="382"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4720,7 +4720,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="381"/>
+      <c r="A66" s="382"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4732,7 +4732,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="381"/>
+      <c r="A67" s="382"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4744,7 +4744,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="381"/>
+      <c r="A68" s="382"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4756,7 +4756,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="381"/>
+      <c r="A69" s="382"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4768,7 +4768,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="381"/>
+      <c r="A70" s="382"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4780,7 +4780,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="381"/>
+      <c r="A71" s="382"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4792,7 +4792,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="381"/>
+      <c r="A72" s="382"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4804,7 +4804,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="381"/>
+      <c r="A73" s="382"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4816,7 +4816,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="381"/>
+      <c r="A74" s="382"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4828,7 +4828,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="381"/>
+      <c r="A75" s="382"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4840,7 +4840,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="381"/>
+      <c r="A76" s="382"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4852,7 +4852,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="381"/>
+      <c r="A77" s="382"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4864,7 +4864,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="381"/>
+      <c r="A78" s="382"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4876,7 +4876,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="381"/>
+      <c r="A79" s="382"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4888,7 +4888,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="381"/>
+      <c r="A80" s="382"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4900,7 +4900,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="381"/>
+      <c r="A81" s="382"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4912,7 +4912,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="381"/>
+      <c r="A82" s="382"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4924,7 +4924,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="381"/>
+      <c r="A83" s="382"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -4981,33 +4981,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="380"/>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
+      <c r="A1" s="381"/>
+      <c r="B1" s="381"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="381"/>
+      <c r="F1" s="381"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="381"/>
-      <c r="B2" s="378" t="s">
+      <c r="A2" s="382"/>
+      <c r="B2" s="379" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="378"/>
-      <c r="D2" s="378"/>
-      <c r="E2" s="378"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="381"/>
-      <c r="B3" s="379" t="s">
+      <c r="A3" s="382"/>
+      <c r="B3" s="380" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="379"/>
-      <c r="D3" s="379"/>
-      <c r="E3" s="379"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="380"/>
+      <c r="E3" s="380"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="381"/>
+      <c r="A4" s="382"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5025,7 +5025,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="381"/>
+      <c r="A5" s="382"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5043,7 +5043,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="381"/>
+      <c r="A6" s="382"/>
       <c r="B6" s="26"/>
       <c r="C6" s="240"/>
       <c r="D6" s="240"/>
@@ -5055,7 +5055,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="381"/>
+      <c r="A7" s="382"/>
       <c r="B7" s="26" t="s">
         <v>194</v>
       </c>
@@ -5075,7 +5075,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="381"/>
+      <c r="A8" s="382"/>
       <c r="B8" s="26" t="s">
         <v>205</v>
       </c>
@@ -5095,7 +5095,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="381"/>
+      <c r="A9" s="382"/>
       <c r="B9" s="26" t="s">
         <v>208</v>
       </c>
@@ -5115,7 +5115,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="381"/>
+      <c r="A10" s="382"/>
       <c r="B10" s="26" t="s">
         <v>211</v>
       </c>
@@ -5135,7 +5135,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="381"/>
+      <c r="A11" s="382"/>
       <c r="B11" s="26" t="s">
         <v>213</v>
       </c>
@@ -5155,7 +5155,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="381"/>
+      <c r="A12" s="382"/>
       <c r="B12" s="26" t="s">
         <v>215</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="381"/>
+      <c r="A13" s="382"/>
       <c r="B13" s="26" t="s">
         <v>218</v>
       </c>
@@ -5195,7 +5195,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="381"/>
+      <c r="A14" s="382"/>
       <c r="B14" s="26"/>
       <c r="C14" s="240"/>
       <c r="D14" s="240"/>
@@ -5209,7 +5209,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="381"/>
+      <c r="A15" s="382"/>
       <c r="B15" s="26"/>
       <c r="C15" s="240"/>
       <c r="D15" s="240"/>
@@ -5223,7 +5223,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="381"/>
+      <c r="A16" s="382"/>
       <c r="B16" s="26"/>
       <c r="C16" s="240"/>
       <c r="D16" s="240"/>
@@ -5237,7 +5237,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="381"/>
+      <c r="A17" s="382"/>
       <c r="B17" s="26"/>
       <c r="C17" s="240"/>
       <c r="D17" s="240"/>
@@ -5251,7 +5251,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="381"/>
+      <c r="A18" s="382"/>
       <c r="B18" s="26"/>
       <c r="C18" s="240"/>
       <c r="D18" s="240"/>
@@ -5265,7 +5265,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="381"/>
+      <c r="A19" s="382"/>
       <c r="B19" s="26"/>
       <c r="C19" s="240"/>
       <c r="D19" s="242"/>
@@ -5279,7 +5279,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="381"/>
+      <c r="A20" s="382"/>
       <c r="B20" s="26"/>
       <c r="C20" s="240"/>
       <c r="D20" s="240"/>
@@ -5293,7 +5293,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="381"/>
+      <c r="A21" s="382"/>
       <c r="B21" s="26"/>
       <c r="C21" s="240"/>
       <c r="D21" s="240"/>
@@ -5307,7 +5307,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="381"/>
+      <c r="A22" s="382"/>
       <c r="B22" s="26"/>
       <c r="C22" s="240"/>
       <c r="D22" s="242"/>
@@ -5321,7 +5321,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="381"/>
+      <c r="A23" s="382"/>
       <c r="B23" s="26"/>
       <c r="C23" s="240"/>
       <c r="D23" s="240"/>
@@ -5335,7 +5335,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="381"/>
+      <c r="A24" s="382"/>
       <c r="B24" s="26"/>
       <c r="C24" s="240"/>
       <c r="D24" s="242"/>
@@ -5349,7 +5349,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="381"/>
+      <c r="A25" s="382"/>
       <c r="B25" s="26"/>
       <c r="C25" s="240"/>
       <c r="D25" s="240"/>
@@ -5363,7 +5363,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="381"/>
+      <c r="A26" s="382"/>
       <c r="B26" s="26"/>
       <c r="C26" s="240"/>
       <c r="D26" s="240"/>
@@ -5377,7 +5377,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="381"/>
+      <c r="A27" s="382"/>
       <c r="B27" s="26"/>
       <c r="C27" s="240"/>
       <c r="D27" s="240"/>
@@ -5391,7 +5391,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="381"/>
+      <c r="A28" s="382"/>
       <c r="B28" s="26"/>
       <c r="C28" s="240"/>
       <c r="D28" s="242"/>
@@ -5405,7 +5405,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="381"/>
+      <c r="A29" s="382"/>
       <c r="B29" s="26"/>
       <c r="C29" s="240"/>
       <c r="D29" s="240"/>
@@ -5419,7 +5419,7 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="381"/>
+      <c r="A30" s="382"/>
       <c r="B30" s="26"/>
       <c r="C30" s="240"/>
       <c r="D30" s="240"/>
@@ -5433,7 +5433,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="381"/>
+      <c r="A31" s="382"/>
       <c r="B31" s="26"/>
       <c r="C31" s="240"/>
       <c r="D31" s="240"/>
@@ -5447,7 +5447,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="381"/>
+      <c r="A32" s="382"/>
       <c r="B32" s="26"/>
       <c r="C32" s="240"/>
       <c r="D32" s="240"/>
@@ -5461,7 +5461,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="381"/>
+      <c r="A33" s="382"/>
       <c r="B33" s="26"/>
       <c r="C33" s="240"/>
       <c r="D33" s="242"/>
@@ -5475,7 +5475,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="381"/>
+      <c r="A34" s="382"/>
       <c r="B34" s="26"/>
       <c r="C34" s="240"/>
       <c r="D34" s="240"/>
@@ -5489,7 +5489,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="381"/>
+      <c r="A35" s="382"/>
       <c r="B35" s="26"/>
       <c r="C35" s="240"/>
       <c r="D35" s="240"/>
@@ -5503,7 +5503,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="381"/>
+      <c r="A36" s="382"/>
       <c r="B36" s="26"/>
       <c r="C36" s="240"/>
       <c r="D36" s="240"/>
@@ -5517,7 +5517,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="381"/>
+      <c r="A37" s="382"/>
       <c r="B37" s="26"/>
       <c r="C37" s="240"/>
       <c r="D37" s="240"/>
@@ -5531,7 +5531,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="381"/>
+      <c r="A38" s="382"/>
       <c r="B38" s="26"/>
       <c r="C38" s="240"/>
       <c r="D38" s="240"/>
@@ -5545,7 +5545,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="381"/>
+      <c r="A39" s="382"/>
       <c r="B39" s="26"/>
       <c r="C39" s="240"/>
       <c r="D39" s="240"/>
@@ -5559,7 +5559,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="381"/>
+      <c r="A40" s="382"/>
       <c r="B40" s="26"/>
       <c r="C40" s="240"/>
       <c r="D40" s="240"/>
@@ -5573,7 +5573,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="381"/>
+      <c r="A41" s="382"/>
       <c r="B41" s="26"/>
       <c r="C41" s="240"/>
       <c r="D41" s="240"/>
@@ -5587,7 +5587,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="381"/>
+      <c r="A42" s="382"/>
       <c r="B42" s="26"/>
       <c r="C42" s="240"/>
       <c r="D42" s="240"/>
@@ -5601,7 +5601,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="381"/>
+      <c r="A43" s="382"/>
       <c r="B43" s="26"/>
       <c r="C43" s="240"/>
       <c r="D43" s="240"/>
@@ -5615,7 +5615,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="381"/>
+      <c r="A44" s="382"/>
       <c r="B44" s="26"/>
       <c r="C44" s="240"/>
       <c r="D44" s="240"/>
@@ -5629,7 +5629,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="381"/>
+      <c r="A45" s="382"/>
       <c r="B45" s="26"/>
       <c r="C45" s="240"/>
       <c r="D45" s="240"/>
@@ -5643,7 +5643,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="381"/>
+      <c r="A46" s="382"/>
       <c r="B46" s="26"/>
       <c r="C46" s="240"/>
       <c r="D46" s="240"/>
@@ -5657,7 +5657,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="381"/>
+      <c r="A47" s="382"/>
       <c r="B47" s="26"/>
       <c r="C47" s="240"/>
       <c r="D47" s="240"/>
@@ -5671,7 +5671,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="381"/>
+      <c r="A48" s="382"/>
       <c r="B48" s="26"/>
       <c r="C48" s="240"/>
       <c r="D48" s="240"/>
@@ -5685,7 +5685,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="381"/>
+      <c r="A49" s="382"/>
       <c r="B49" s="26"/>
       <c r="C49" s="240"/>
       <c r="D49" s="240"/>
@@ -5699,7 +5699,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="381"/>
+      <c r="A50" s="382"/>
       <c r="B50" s="26"/>
       <c r="C50" s="240"/>
       <c r="D50" s="240"/>
@@ -5713,7 +5713,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="381"/>
+      <c r="A51" s="382"/>
       <c r="B51" s="26"/>
       <c r="C51" s="240"/>
       <c r="D51" s="240"/>
@@ -5727,7 +5727,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="381"/>
+      <c r="A52" s="382"/>
       <c r="B52" s="26"/>
       <c r="C52" s="240"/>
       <c r="D52" s="240"/>
@@ -5741,7 +5741,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="381"/>
+      <c r="A53" s="382"/>
       <c r="B53" s="26"/>
       <c r="C53" s="240"/>
       <c r="D53" s="240"/>
@@ -5755,7 +5755,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="381"/>
+      <c r="A54" s="382"/>
       <c r="B54" s="26"/>
       <c r="C54" s="240"/>
       <c r="D54" s="240"/>
@@ -5769,7 +5769,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="381"/>
+      <c r="A55" s="382"/>
       <c r="B55" s="26"/>
       <c r="C55" s="240"/>
       <c r="D55" s="240"/>
@@ -5783,7 +5783,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="381"/>
+      <c r="A56" s="382"/>
       <c r="B56" s="26"/>
       <c r="C56" s="240"/>
       <c r="D56" s="240"/>
@@ -5797,7 +5797,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="381"/>
+      <c r="A57" s="382"/>
       <c r="B57" s="26"/>
       <c r="C57" s="240"/>
       <c r="D57" s="240"/>
@@ -5808,7 +5808,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="381"/>
+      <c r="A58" s="382"/>
       <c r="B58" s="26"/>
       <c r="C58" s="240"/>
       <c r="D58" s="240"/>
@@ -5819,7 +5819,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="381"/>
+      <c r="A59" s="382"/>
       <c r="B59" s="26"/>
       <c r="C59" s="240"/>
       <c r="D59" s="240"/>
@@ -5830,7 +5830,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="381"/>
+      <c r="A60" s="382"/>
       <c r="B60" s="26"/>
       <c r="C60" s="240"/>
       <c r="D60" s="240"/>
@@ -5841,7 +5841,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="381"/>
+      <c r="A61" s="382"/>
       <c r="B61" s="26"/>
       <c r="C61" s="240"/>
       <c r="D61" s="240"/>
@@ -5852,7 +5852,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="381"/>
+      <c r="A62" s="382"/>
       <c r="B62" s="26"/>
       <c r="C62" s="240"/>
       <c r="D62" s="240"/>
@@ -5863,7 +5863,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="381"/>
+      <c r="A63" s="382"/>
       <c r="B63" s="26"/>
       <c r="C63" s="240"/>
       <c r="D63" s="240"/>
@@ -5874,7 +5874,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="381"/>
+      <c r="A64" s="382"/>
       <c r="B64" s="26"/>
       <c r="C64" s="240"/>
       <c r="D64" s="240"/>
@@ -5885,7 +5885,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="381"/>
+      <c r="A65" s="382"/>
       <c r="B65" s="26"/>
       <c r="C65" s="240"/>
       <c r="D65" s="240"/>
@@ -5896,7 +5896,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="381"/>
+      <c r="A66" s="382"/>
       <c r="B66" s="26"/>
       <c r="C66" s="240"/>
       <c r="D66" s="240"/>
@@ -5907,7 +5907,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="381"/>
+      <c r="A67" s="382"/>
       <c r="B67" s="26"/>
       <c r="C67" s="240"/>
       <c r="D67" s="240"/>
@@ -5918,7 +5918,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="381"/>
+      <c r="A68" s="382"/>
       <c r="B68" s="26"/>
       <c r="C68" s="240"/>
       <c r="D68" s="240"/>
@@ -5929,7 +5929,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="381"/>
+      <c r="A69" s="382"/>
       <c r="B69" s="26"/>
       <c r="C69" s="240"/>
       <c r="D69" s="240"/>
@@ -5940,7 +5940,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="381"/>
+      <c r="A70" s="382"/>
       <c r="B70" s="26"/>
       <c r="C70" s="240"/>
       <c r="D70" s="240"/>
@@ -5951,7 +5951,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="381"/>
+      <c r="A71" s="382"/>
       <c r="B71" s="26"/>
       <c r="C71" s="240"/>
       <c r="D71" s="240"/>
@@ -5962,7 +5962,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="381"/>
+      <c r="A72" s="382"/>
       <c r="B72" s="26"/>
       <c r="C72" s="240"/>
       <c r="D72" s="240"/>
@@ -5973,7 +5973,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="381"/>
+      <c r="A73" s="382"/>
       <c r="B73" s="26"/>
       <c r="C73" s="240"/>
       <c r="D73" s="240"/>
@@ -5984,7 +5984,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="381"/>
+      <c r="A74" s="382"/>
       <c r="B74" s="26"/>
       <c r="C74" s="240"/>
       <c r="D74" s="240"/>
@@ -5995,7 +5995,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="381"/>
+      <c r="A75" s="382"/>
       <c r="B75" s="26"/>
       <c r="C75" s="240"/>
       <c r="D75" s="240"/>
@@ -6006,7 +6006,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="381"/>
+      <c r="A76" s="382"/>
       <c r="B76" s="26"/>
       <c r="C76" s="240"/>
       <c r="D76" s="240"/>
@@ -6017,7 +6017,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="381"/>
+      <c r="A77" s="382"/>
       <c r="B77" s="26"/>
       <c r="C77" s="240"/>
       <c r="D77" s="240"/>
@@ -6028,7 +6028,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="381"/>
+      <c r="A78" s="382"/>
       <c r="B78" s="26"/>
       <c r="C78" s="240"/>
       <c r="D78" s="240"/>
@@ -6039,7 +6039,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="381"/>
+      <c r="A79" s="382"/>
       <c r="B79" s="26"/>
       <c r="C79" s="240"/>
       <c r="D79" s="240"/>
@@ -6051,7 +6051,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="381"/>
+      <c r="A80" s="382"/>
       <c r="B80" s="26"/>
       <c r="C80" s="240"/>
       <c r="D80" s="240"/>
@@ -6063,7 +6063,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="381"/>
+      <c r="A81" s="382"/>
       <c r="B81" s="26"/>
       <c r="C81" s="240"/>
       <c r="D81" s="240"/>
@@ -6075,7 +6075,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="381"/>
+      <c r="A82" s="382"/>
       <c r="B82" s="26"/>
       <c r="C82" s="240"/>
       <c r="D82" s="240"/>
@@ -6087,7 +6087,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="381"/>
+      <c r="A83" s="382"/>
       <c r="B83" s="31"/>
       <c r="C83" s="241">
         <f>SUM(C5:C72)</f>
@@ -6145,67 +6145,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="382" t="s">
+      <c r="A1" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="382"/>
-      <c r="C1" s="382"/>
-      <c r="D1" s="382"/>
-      <c r="E1" s="382"/>
-      <c r="F1" s="382"/>
-      <c r="G1" s="382"/>
-      <c r="H1" s="382"/>
-      <c r="I1" s="382"/>
-      <c r="J1" s="382"/>
-      <c r="K1" s="382"/>
-      <c r="L1" s="382"/>
-      <c r="M1" s="382"/>
-      <c r="N1" s="382"/>
-      <c r="O1" s="382"/>
-      <c r="P1" s="382"/>
-      <c r="Q1" s="382"/>
+      <c r="B1" s="391"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
+      <c r="H1" s="391"/>
+      <c r="I1" s="391"/>
+      <c r="J1" s="391"/>
+      <c r="K1" s="391"/>
+      <c r="L1" s="391"/>
+      <c r="M1" s="391"/>
+      <c r="N1" s="391"/>
+      <c r="O1" s="391"/>
+      <c r="P1" s="391"/>
+      <c r="Q1" s="391"/>
     </row>
     <row r="2" spans="1:24" s="61" customFormat="1" ht="18">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="392" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
-      <c r="H2" s="383"/>
-      <c r="I2" s="383"/>
-      <c r="J2" s="383"/>
-      <c r="K2" s="383"/>
-      <c r="L2" s="383"/>
-      <c r="M2" s="383"/>
-      <c r="N2" s="383"/>
-      <c r="O2" s="383"/>
-      <c r="P2" s="383"/>
-      <c r="Q2" s="383"/>
+      <c r="B2" s="392"/>
+      <c r="C2" s="392"/>
+      <c r="D2" s="392"/>
+      <c r="E2" s="392"/>
+      <c r="F2" s="392"/>
+      <c r="G2" s="392"/>
+      <c r="H2" s="392"/>
+      <c r="I2" s="392"/>
+      <c r="J2" s="392"/>
+      <c r="K2" s="392"/>
+      <c r="L2" s="392"/>
+      <c r="M2" s="392"/>
+      <c r="N2" s="392"/>
+      <c r="O2" s="392"/>
+      <c r="P2" s="392"/>
+      <c r="Q2" s="392"/>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="384" t="s">
+      <c r="A3" s="393" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="385"/>
-      <c r="C3" s="385"/>
-      <c r="D3" s="385"/>
-      <c r="E3" s="385"/>
-      <c r="F3" s="385"/>
-      <c r="G3" s="385"/>
-      <c r="H3" s="385"/>
-      <c r="I3" s="385"/>
-      <c r="J3" s="385"/>
-      <c r="K3" s="385"/>
-      <c r="L3" s="385"/>
-      <c r="M3" s="385"/>
-      <c r="N3" s="385"/>
-      <c r="O3" s="385"/>
-      <c r="P3" s="385"/>
-      <c r="Q3" s="386"/>
+      <c r="B3" s="394"/>
+      <c r="C3" s="394"/>
+      <c r="D3" s="394"/>
+      <c r="E3" s="394"/>
+      <c r="F3" s="394"/>
+      <c r="G3" s="394"/>
+      <c r="H3" s="394"/>
+      <c r="I3" s="394"/>
+      <c r="J3" s="394"/>
+      <c r="K3" s="394"/>
+      <c r="L3" s="394"/>
+      <c r="M3" s="394"/>
+      <c r="N3" s="394"/>
+      <c r="O3" s="394"/>
+      <c r="P3" s="394"/>
+      <c r="Q3" s="395"/>
       <c r="S3" s="46"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6214,52 +6214,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="387" t="s">
+      <c r="A4" s="396" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="389" t="s">
+      <c r="B4" s="398" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="391" t="s">
+      <c r="C4" s="383" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="391" t="s">
+      <c r="D4" s="383" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="391" t="s">
+      <c r="E4" s="383" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="393" t="s">
+      <c r="F4" s="400" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="391" t="s">
+      <c r="G4" s="383" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="391" t="s">
+      <c r="H4" s="383" t="s">
         <v>203</v>
       </c>
-      <c r="I4" s="391" t="s">
+      <c r="I4" s="383" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="391" t="s">
+      <c r="J4" s="383" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="391" t="s">
+      <c r="K4" s="383" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="391" t="s">
+      <c r="L4" s="383" t="s">
         <v>131</v>
       </c>
-      <c r="M4" s="391" t="s">
+      <c r="M4" s="383" t="s">
         <v>165</v>
       </c>
-      <c r="N4" s="391" t="s">
+      <c r="N4" s="383" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="401" t="s">
+      <c r="O4" s="389" t="s">
         <v>144</v>
       </c>
-      <c r="P4" s="395" t="s">
+      <c r="P4" s="402" t="s">
         <v>174</v>
       </c>
       <c r="Q4" s="120" t="s">
@@ -6272,22 +6272,22 @@
       <c r="W4" s="65"/>
     </row>
     <row r="5" spans="1:24" s="63" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="388"/>
-      <c r="B5" s="390"/>
-      <c r="C5" s="392"/>
-      <c r="D5" s="392"/>
-      <c r="E5" s="392"/>
-      <c r="F5" s="394"/>
-      <c r="G5" s="392"/>
-      <c r="H5" s="392"/>
-      <c r="I5" s="392"/>
-      <c r="J5" s="392"/>
-      <c r="K5" s="392"/>
-      <c r="L5" s="392"/>
-      <c r="M5" s="392"/>
-      <c r="N5" s="392"/>
-      <c r="O5" s="402"/>
-      <c r="P5" s="396"/>
+      <c r="A5" s="397"/>
+      <c r="B5" s="399"/>
+      <c r="C5" s="384"/>
+      <c r="D5" s="384"/>
+      <c r="E5" s="384"/>
+      <c r="F5" s="401"/>
+      <c r="G5" s="384"/>
+      <c r="H5" s="384"/>
+      <c r="I5" s="384"/>
+      <c r="J5" s="384"/>
+      <c r="K5" s="384"/>
+      <c r="L5" s="384"/>
+      <c r="M5" s="384"/>
+      <c r="N5" s="384"/>
+      <c r="O5" s="390"/>
+      <c r="P5" s="403"/>
       <c r="Q5" s="121" t="s">
         <v>36</v>
       </c>
@@ -6889,12 +6889,12 @@
         <v>0</v>
       </c>
       <c r="R24" s="76"/>
-      <c r="S24" s="397" t="s">
+      <c r="S24" s="385" t="s">
         <v>189</v>
       </c>
-      <c r="T24" s="397"/>
-      <c r="U24" s="397"/>
-      <c r="V24" s="397"/>
+      <c r="T24" s="385"/>
+      <c r="U24" s="385"/>
+      <c r="V24" s="385"/>
       <c r="W24" s="87"/>
     </row>
     <row r="25" spans="1:23" s="86" customFormat="1">
@@ -6991,11 +6991,11 @@
         <v>0</v>
       </c>
       <c r="R27" s="76"/>
-      <c r="S27" s="398" t="s">
+      <c r="S27" s="386" t="s">
         <v>80</v>
       </c>
-      <c r="T27" s="399"/>
-      <c r="U27" s="400"/>
+      <c r="T27" s="387"/>
+      <c r="U27" s="388"/>
       <c r="V27" s="354">
         <f>SUM(V25:V26)</f>
         <v>4900</v>
@@ -9288,11 +9288,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9309,6 +9304,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9321,8 +9321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72:D73"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9349,15 +9349,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="408" t="s">
+      <c r="A1" s="409" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="408"/>
-      <c r="C1" s="408"/>
-      <c r="D1" s="408"/>
-      <c r="E1" s="408"/>
-      <c r="F1" s="408"/>
-      <c r="G1" s="408"/>
+      <c r="B1" s="409"/>
+      <c r="C1" s="409"/>
+      <c r="D1" s="409"/>
+      <c r="E1" s="409"/>
+      <c r="F1" s="409"/>
+      <c r="G1" s="409"/>
       <c r="H1" s="56"/>
       <c r="I1" s="137"/>
       <c r="J1" s="137"/>
@@ -9450,15 +9450,15 @@
       <c r="CS1" s="132"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="409" t="s">
+      <c r="A2" s="410" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="409"/>
-      <c r="C2" s="409"/>
-      <c r="D2" s="409"/>
-      <c r="E2" s="409"/>
-      <c r="F2" s="409"/>
-      <c r="G2" s="409"/>
+      <c r="B2" s="410"/>
+      <c r="C2" s="410"/>
+      <c r="D2" s="410"/>
+      <c r="E2" s="410"/>
+      <c r="F2" s="410"/>
+      <c r="G2" s="410"/>
       <c r="H2" s="56"/>
       <c r="I2" s="137"/>
       <c r="J2" s="137"/>
@@ -9551,15 +9551,15 @@
       <c r="CS2" s="132"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="410" t="s">
+      <c r="A3" s="411" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="410"/>
-      <c r="C3" s="410"/>
-      <c r="D3" s="410"/>
-      <c r="E3" s="410"/>
-      <c r="F3" s="410"/>
-      <c r="G3" s="410"/>
+      <c r="B3" s="411"/>
+      <c r="C3" s="411"/>
+      <c r="D3" s="411"/>
+      <c r="E3" s="411"/>
+      <c r="F3" s="411"/>
+      <c r="G3" s="411"/>
       <c r="H3" s="56"/>
       <c r="I3" s="137"/>
       <c r="J3" s="137"/>
@@ -12901,12 +12901,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="127"/>
-      <c r="B35" s="405" t="s">
+      <c r="B35" s="406" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="405"/>
-      <c r="D35" s="405"/>
-      <c r="E35" s="405"/>
+      <c r="C35" s="406"/>
+      <c r="D35" s="406"/>
+      <c r="E35" s="406"/>
       <c r="F35" s="128"/>
       <c r="G35" s="133"/>
       <c r="H35" s="133"/>
@@ -13761,10 +13761,10 @@
       <c r="D43" s="201"/>
       <c r="E43" s="171"/>
       <c r="F43" s="128"/>
-      <c r="G43" s="406"/>
-      <c r="H43" s="406"/>
-      <c r="I43" s="406"/>
-      <c r="J43" s="406"/>
+      <c r="G43" s="407"/>
+      <c r="H43" s="407"/>
+      <c r="I43" s="407"/>
+      <c r="J43" s="407"/>
       <c r="K43" s="56"/>
       <c r="L43" s="137"/>
       <c r="M43" s="56"/>
@@ -16553,7 +16553,7 @@
         <v>71</v>
       </c>
       <c r="C68" s="291"/>
-      <c r="D68" s="439">
+      <c r="D68" s="378">
         <v>250930</v>
       </c>
       <c r="E68" s="293" t="s">
@@ -16789,7 +16789,7 @@
         <v>87</v>
       </c>
       <c r="C70" s="291"/>
-      <c r="D70" s="439">
+      <c r="D70" s="378">
         <v>281850</v>
       </c>
       <c r="E70" s="294" t="s">
@@ -16907,7 +16907,7 @@
         <v>134</v>
       </c>
       <c r="C71" s="291"/>
-      <c r="D71" s="439">
+      <c r="D71" s="378">
         <v>79590</v>
       </c>
       <c r="E71" s="294" t="s">
@@ -21898,11 +21898,11 @@
       <c r="CS118" s="132"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="403" t="s">
+      <c r="A119" s="404" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="404"/>
-      <c r="C119" s="407"/>
+      <c r="B119" s="405"/>
+      <c r="C119" s="408"/>
       <c r="D119" s="205">
         <f>SUM(D37:D118)</f>
         <v>4243480</v>
@@ -22107,11 +22107,11 @@
       <c r="CS120" s="132"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="403" t="s">
+      <c r="A121" s="404" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="404"/>
-      <c r="C121" s="404"/>
+      <c r="B121" s="405"/>
+      <c r="C121" s="405"/>
       <c r="D121" s="205">
         <f>D119+M121</f>
         <v>4243480</v>
@@ -33345,7 +33345,7 @@
   </sheetPr>
   <dimension ref="A1:R217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -33369,28 +33369,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="415" t="s">
+      <c r="A1" s="416" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="416"/>
-      <c r="C1" s="416"/>
-      <c r="D1" s="416"/>
-      <c r="E1" s="417"/>
+      <c r="B1" s="417"/>
+      <c r="C1" s="417"/>
+      <c r="D1" s="417"/>
+      <c r="E1" s="418"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="414"/>
-      <c r="J1" s="414"/>
-      <c r="K1" s="414"/>
+      <c r="I1" s="415"/>
+      <c r="J1" s="415"/>
+      <c r="K1" s="415"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="424" t="s">
+      <c r="A2" s="425" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="425"/>
-      <c r="C2" s="425"/>
-      <c r="D2" s="425"/>
-      <c r="E2" s="426"/>
+      <c r="B2" s="426"/>
+      <c r="C2" s="426"/>
+      <c r="D2" s="426"/>
+      <c r="E2" s="427"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33411,13 +33411,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="418" t="s">
+      <c r="A3" s="419" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="419"/>
-      <c r="C3" s="419"/>
-      <c r="D3" s="419"/>
-      <c r="E3" s="420"/>
+      <c r="B3" s="420"/>
+      <c r="C3" s="420"/>
+      <c r="D3" s="420"/>
+      <c r="E3" s="421"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -33444,13 +33444,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="427" t="s">
+      <c r="A4" s="428" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="428"/>
-      <c r="C4" s="428"/>
-      <c r="D4" s="428"/>
-      <c r="E4" s="429"/>
+      <c r="B4" s="429"/>
+      <c r="C4" s="429"/>
+      <c r="D4" s="429"/>
+      <c r="E4" s="430"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -33919,11 +33919,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="307"/>
-      <c r="I17" s="411" t="s">
+      <c r="I17" s="412" t="s">
         <v>187</v>
       </c>
-      <c r="J17" s="411"/>
-      <c r="K17" s="411"/>
+      <c r="J17" s="412"/>
+      <c r="K17" s="412"/>
       <c r="L17" s="360">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -33946,11 +33946,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="307"/>
-      <c r="I18" s="430" t="s">
+      <c r="I18" s="431" t="s">
         <v>123</v>
       </c>
-      <c r="J18" s="430"/>
-      <c r="K18" s="430"/>
+      <c r="J18" s="431"/>
+      <c r="K18" s="431"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -33962,21 +33962,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="421" t="s">
+      <c r="A19" s="422" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="422"/>
-      <c r="C19" s="422"/>
-      <c r="D19" s="422"/>
-      <c r="E19" s="423"/>
+      <c r="B19" s="423"/>
+      <c r="C19" s="423"/>
+      <c r="D19" s="423"/>
+      <c r="E19" s="424"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="412" t="s">
+      <c r="I19" s="413" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="413"/>
-      <c r="K19" s="413"/>
+      <c r="J19" s="414"/>
+      <c r="K19" s="414"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -34004,11 +34004,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="413" t="s">
+      <c r="I20" s="414" t="s">
         <v>197</v>
       </c>
-      <c r="J20" s="413"/>
-      <c r="K20" s="413"/>
+      <c r="J20" s="414"/>
+      <c r="K20" s="414"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -34035,9 +34035,9 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="431"/>
-      <c r="J21" s="432"/>
-      <c r="K21" s="433"/>
+      <c r="I21" s="432"/>
+      <c r="J21" s="433"/>
+      <c r="K21" s="434"/>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="7"/>
@@ -34060,11 +34060,11 @@
       <c r="E22" s="264">
         <v>281850</v>
       </c>
-      <c r="I22" s="431" t="s">
+      <c r="I22" s="432" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="432"/>
-      <c r="K22" s="433"/>
+      <c r="J22" s="433"/>
+      <c r="K22" s="434"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="7"/>
@@ -34087,11 +34087,11 @@
       <c r="E23" s="264">
         <v>79590</v>
       </c>
-      <c r="I23" s="411" t="s">
+      <c r="I23" s="412" t="s">
         <v>124</v>
       </c>
-      <c r="J23" s="411"/>
-      <c r="K23" s="411"/>
+      <c r="J23" s="412"/>
+      <c r="K23" s="412"/>
       <c r="L23" s="360">
         <f>L17-L18-L19-L20-L21-L22</f>
         <v>218150</v>
@@ -37055,10 +37055,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" thickBot="1">
-      <c r="A1" s="434" t="s">
+      <c r="A1" s="435" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="435"/>
+      <c r="B1" s="436"/>
       <c r="C1" s="274">
         <f>C75+H6</f>
         <v>62600</v>
@@ -37359,11 +37359,11 @@
       <c r="D18" s="24"/>
       <c r="E18" s="241"/>
       <c r="F18" s="222"/>
-      <c r="G18" s="438" t="s">
+      <c r="G18" s="439" t="s">
         <v>170</v>
       </c>
-      <c r="H18" s="438"/>
-      <c r="I18" s="438"/>
+      <c r="H18" s="439"/>
+      <c r="I18" s="439"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="24"/>
@@ -38010,10 +38010,10 @@
       <c r="E74" s="241"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="436" t="s">
+      <c r="A75" s="437" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="437"/>
+      <c r="B75" s="438"/>
       <c r="C75" s="305">
         <f>SUM(C4:C74)</f>
         <v>39200</v>
